--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_graph_spectral_filtering_cutoff_rank_5.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_spherical_graph_spectral_filtering_cutoff_rank_5.xlsx
@@ -8,6 +8,12 @@
   </bookViews>
   <sheets>
     <sheet name="graph_spectral_filtering_1.0" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="graph_spectral_filtering_0.75" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="graph_spectral_filtering_0.5" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="graph_spectral_filtering_0.3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="graph_spectral_filtering_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="graph_spectral_filtering_0.1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="graph_spectral_filtering_0.05" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1052,4 +1058,3814 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>78.28311663595706</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5863405485327046</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7828311663595706</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7706312808471283</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>77.23483767160616</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5267024803285798</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7723483767160616</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7682149790153896</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>73.12796823501932</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6563488164295752</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7312796823501934</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7228249372827602</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>65.73681433230391</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7482152827084064</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6573681433230391</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6491292030369125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>72.03392762913174</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7019713424146176</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7203392762913173</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7160871998563081</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>64.80774055138886</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8213973596692086</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6480774055138886</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6375886476240884</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>78.33882646043651</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5036092277228211</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7833882646043651</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7808541844359087</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>79.29212190416872</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5728572944222833</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7929212190416872</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.766642333868285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>90.98037180252425</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2116502114959682</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9098037180252424</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.9096005539210493</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>75.99866780854505</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5845668063809475</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7599866780854505</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7583995728929844</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>69.55484043979619</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8001922344168028</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.695548404397962</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.682562283633836</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>70.78279223868718</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.803340878089269</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7078279223868719</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6925583851766629</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>61.1112552876755</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8779681012034416</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.611112552876755</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5890376991645538</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>66.5820638586839</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7845512201388678</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6658206385868389</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.651015126625652</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>61.27371344042768</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9551324235275388</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6127371344042769</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6026924017706179</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78.25154196835612</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5108273454010487</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7825154196835613</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7797377101980894</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>77.32108409242294</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5765678354228536</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7732108409242294</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7666384263240078</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>85.28905959394112</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3720267966700097</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8528905959394113</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.851811092711132</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>68.63779098435108</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8335441653927166</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6863779098435108</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6631525028641352</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>64.94537149975346</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8558331441289434</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6494537149975346</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6315672929501221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>86.44953676069863</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3354284772028525</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8644953676069862</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8638005173694312</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>65.91899583906435</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.8234020143747329</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6591899583906435</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6373468004465775</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>77.80543084282735</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5203071976080537</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7780543084282736</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7705397326019904</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>68.50396629728631</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6903625834112366</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6850396629728631</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6724142307660653</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>72.80573361361257</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6713785830264289</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7280573361361258</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7149312056092263</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>57.35456189067379</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.015295975779494</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5735456189067379</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5626311864428517</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>65.08006124620455</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8087953607241312</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6508006124620456</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6426457287581663</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>94.98957603439476</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1594437040990063</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9498957603439477</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9500407624269505</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>94.90436768484156</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1348273257938369</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9490436768484155</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9491226905011786</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>94.40064360418343</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1520391591098208</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9440064360418343</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9418484986150721</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>74.5932260082988</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6198307965208733</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7459322600829881</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7365355722579043</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>74.44277199629754</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6257284158840776</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7444277199629755</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7296981444366071</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>76.41251221896383</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.572102522974213</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7641251221896384</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7590339535840569</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>74.42209707696432</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6620807300011317</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7442209707696433</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7282044295903803</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>66.2060225434476</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7429905612021684</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6620602254344761</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6503491938103433</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>73.51196809660982</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6856413001815478</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7351196809660984</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7308098034678958</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>67.5641657799808</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7551798454175394</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6756416577998079</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6704601781918736</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>78.45682056073149</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4842667051435758</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.784568205607315</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7772149688494127</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>78.6476526613552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5675530128103371</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7864765266135521</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7725731807633744</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.09090044031522</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3201209944042299</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8809090044031522</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8786402389455266</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>73.27286568222908</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6492446744193633</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7327286568222908</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.72533529285621</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>71.47293661709877</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.774632346133391</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7147293661709877</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7011364821366433</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>69.93408247476189</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.824948767820994</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6993408247476189</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6874735934189882</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>60.61929601467141</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8681395798921585</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.606192960146714</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.6007097365561068</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>63.65721156757411</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8974634339412054</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6365721156757411</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6254104619092805</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>63.64034290954074</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.938210639450699</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6364034290954075</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6139242014945884</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>78.89687627055596</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5203943386673927</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7889687627055597</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7786884245274374</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>75.38577323333246</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6404892287527522</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7538577323333246</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7462404278637212</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>85.5854289396967</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.364375419402495</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8558542893969671</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8561528554012373</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>67.34694936807412</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8067898453523716</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6734694936807413</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6498051899189421</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>70.62855215010509</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7289516235391298</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7062855215010511</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.7000312453973077</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>85.71432278825941</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3439209616432587</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8571432278825941</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8561294546303</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>68.76841495168642</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.721231730779012</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.6876841495168644</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6825276581817064</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>80.28538309154924</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4336707037873566</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8028538309154923</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8001404820617222</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>70.38962274760162</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.6365142448494832</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.7038962274760163</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6946660887242967</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>74.57166584486025</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6437731670836608</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7457166584486025</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7369192310984304</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>57.8494623655914</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9886399995535612</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.578494623655914</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5585269550388733</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>66.08785543127536</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8634973724683125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6608785543127536</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6423909426693032</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>94.75116566752308</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1597306799584961</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9475116566752307</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9475124703547564</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>94.39995155667437</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1573027257339466</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9439995155667436</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9435974031427712</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>96.14105658353446</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1087051223803201</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9614105658353447</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9614430005762472</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>74.90513758769539</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6162096897876062</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.749051375876954</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7401915229866112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.39089438489952</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6448144649465879</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7739089438489952</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7535808328982154</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>78.47187259405358</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5128776382654905</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7847187259405358</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7844562233842017</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>74.45488282770613</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.7032341208929818</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7445488282770613</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7246084926086243</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>66.47600757792023</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7626535991827648</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6647600757792023</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.647708316190987</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75.25411119473351</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6337847637633482</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7525411119473352</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7490108094128938</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>66.6569780015398</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7513516157865524</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6665697800153981</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6627657751770515</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>78.70941790153894</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4697919751342852</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7870941790153895</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7783354170550796</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82.2164551596467</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4303387724716837</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8221645515964671</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8136014881899719</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.94480056055849</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2550873293890618</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8894480056055848</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8880344126633439</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>75.37660360383741</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6397482025126616</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.753766036038374</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7533544506316673</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>67.12653223643804</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8709051623940468</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6712653223643803</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6530670861651847</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>69.78416768311145</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8368507911761602</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6978416768311144</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.682817764932331</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>60.00294120191351</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8922093893090883</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.6000294120191352</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5893085799691884</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>67.19911071895085</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8091972460349401</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6719911071895085</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6603085795207179</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>67.25879981660741</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8281591467559337</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6725879981660741</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6539107548422327</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>79.04471491967924</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5140473630279303</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7904471491967924</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7888144173188556</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>77.76529208730179</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6014637623913586</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.777652920873018</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7713953818547286</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>83.6680248099032</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4237689725433786</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.836680248099032</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8349691965758215</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>66.75126947464943</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8750754088163376</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6675126947464943</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6517626585926503</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>70.19489787973944</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7475879636903604</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.7019489787973945</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6981375159718036</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>83.64475471241101</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4229543137053648</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.83644754712411</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8289654523165512</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>70.2778570748882</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7104832013448079</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7027785707488819</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.6929178448429768</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>72.41723544321317</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7061031343570601</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7241723544321317</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.701842697097503</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>66.59417469009247</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7944540676971277</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6659417469009248</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6604958377884479</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>72.21385998148773</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6705657684554656</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7221385998148773</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7169850658555601</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>58.20500177337173</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9378911577165127</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5820500177337175</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.560573908321031</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>66.82774072440074</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7904989148179691</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6682774072440073</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6531348454840853</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>96.04840872325886</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1291287528836013</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9604840872325886</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9606517943235111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>92.99509511327952</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1814974876712465</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9299509511327952</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9290279322694837</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>96.43932905993996</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1147324597439365</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9643932905993996</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9644436262042086</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>74.94704106436909</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6220418982292684</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7494704106436908</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7402995719486305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>77.36001176480765</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.559714729928722</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7736001176480766</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7604345019684807</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>72.2037387866677</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6794871350129446</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.722037387866677</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7148814051091921</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75.03395358091333</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5846934519087275</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7503395358091333</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7481393401897789</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>65.0150952862914</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7990869039048751</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.650150952862914</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6374664217575738</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>75.39658647566156</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.6152701695760092</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.7539658647566155</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7490533025260971</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>64.36474363965087</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8325332107643286</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6436474363965086</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6342038248644467</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>79.46824799522487</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4786102688250442</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7946824799522487</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7949717905990296</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>82.64855232311699</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4202923399629072</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8264855232311697</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8176637107427865</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>88.35898234413793</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2804645809888219</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8835898234413792</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8839077485795762</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>74.69900258652756</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6528449161599079</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7469900258652757</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7389774520422443</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>70.00302770785214</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7753888696432114</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7000302770785214</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6841905502816543</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>66.95507746606805</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.915986109773318</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6695507746606804</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6605987800060723</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>58.69393333852368</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.9340950667858123</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.586939333385237</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5921305134182504</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>67.69850950267735</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7655914604663849</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6769850950267736</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.6655632602601982</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>66.39901729253714</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7616008872787157</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6639901729253713</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6523119712756318</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>74.90116696511215</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5860391924157738</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7490116696511215</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7418333694629033</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>74.4362840509001</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6007366470061243</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.744362840509001</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7427194840341804</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>83.31473455652731</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4354154218919575</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.833147345565273</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8274753693540283</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>68.29678457426101</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7746516309678555</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6829678457426102</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6784465060440867</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>69.98235278851892</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8037120638415217</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6998235278851893</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6845949067331702</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>83.42035830759782</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4978656623357286</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8342035830759782</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8247519526579428</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>70.97422988088132</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7178898076216379</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.7097422988088132</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.7076937442327582</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>77.01641017655862</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5235283123950164</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.7701641017655863</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.7673231317202791</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>68.47204560593084</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7169337394957741</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6847204560593085</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6740542834423773</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>69.91695429891261</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7978019247452417</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.6991695429891263</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6890160137014745</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>55.32919834946669</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.03980481463174</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5532919834946669</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.5284506992312334</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>62.32899938580783</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.048500519742568</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6232899938580784</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5855659715824351</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>94.84000726649884</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.164896876217487</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9484000726649885</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9484308916046423</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>94.31699236152562</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1532596376916748</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9431699236152562</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.943334006561509</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>96.31752869834514</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1101062922258279</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9631752869834515</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9630671326702848</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>74.2720842452501</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6342267548068554</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7427208424525009</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.7347084012218108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>69.13684374432304</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8046488648901382</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6913684374432305</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6669778903263867</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>71.73677972992846</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.6868150174617768</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7173677972992846</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7061042890358855</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>72.50521198280262</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6699983812868595</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7250521198280262</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7036794343410504</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60.93997352918278</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.7803169511258602</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6093997352918278</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6013116766174157</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>68.74358774729885</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7732407512764137</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6874358774729885</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6804145246508251</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60.47301447244354</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8647335136930148</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6047301447244353</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.594714582247396</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.41663855223661</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6666009543715822</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7341663855223661</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7224886082546453</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>78.41443265080147</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5302548793959432</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7841443265080148</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7783723762463148</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>85.64702116800319</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3588734389593204</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8564702116800319</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8519629982803748</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>72.92787999896193</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6856089177230994</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7292787999896193</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7186565310105528</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>67.76425401603819</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8092311138908068</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6776425401603821</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6604087488106463</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>64.10167908026885</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.902864516278108</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6410167908026886</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6252034178712285</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>52.39093763786884</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.003567387660344</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5239093763786884</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.5141674718244656</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>60.60476301698111</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8676028807957967</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6060476301698111</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.5988991692196987</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>63.78299120234605</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8425402323404947</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.6378299120234605</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.6276631919927729</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>76.18854834384381</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5813285289953153</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7618854834384381</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7578092526330196</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>72.69829323783077</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6750614120314518</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.7269829323783078</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7215114960957464</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>80.54360331836781</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5738127837578456</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8054360331836781</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.7945433146689723</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>62.72709971539545</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9067864478876194</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.6272709971539546</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.6129874707130494</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>67.54106869436586</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8890890095382928</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6754106869436587</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.6726833528173728</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>84.12590074308602</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3957150598367055</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.8412590074308601</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8406861524983384</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>57.79790482616632</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9505996967355411</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5779790482616631</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5685922402034522</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>69.62110398878883</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7211663986245791</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.6962110398878882</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.6796040632968617</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>62.05468905440358</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.8318014040589332</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.6205468905440359</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.6155072699904599</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>70.15709478455696</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.6989091289540131</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7015709478455696</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6953178002876633</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>52.62138945838632</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.126505502810081</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5262138945838631</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4890567826972028</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>62.2360055017777</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9484930510322254</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6223600550177769</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6092458089922937</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>92.95538888744713</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.251140498155534</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9295538888744712</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9290949488560882</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>92.42251230546978</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1760158680852328</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9242251230546976</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.9244133358553925</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>95.76017093573473</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1489388187396495</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9576017093573472</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9578838169715462</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>70.73455941083689</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.7040753803464193</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.7073455941083689</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6973320672435706</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub6ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>62.33098902239639</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9143874496221542</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6233098902239639</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6131380604874687</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub6ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>63.19682696217095</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8545006955663362</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6319682696217095</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6056520148599345</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub6ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>62.59907092621908</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.9548318418363729</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6259907092621908</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.6085226792837759</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub7ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>56.84746407840898</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9631628781557083</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5684746407840898</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.5348275975781956</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub7ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>58.67187432417236</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9748024279872576</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5867187432417236</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.565976930878805</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub7ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>54.45012500108133</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.988733920454979</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5445012500108132</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.5240998723804354</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub8ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>66.9933130909437</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8721473802657178</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.669933130909437</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6584961785270709</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub8ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>73.39501206757845</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6498738468935092</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7339501206757844</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7276306597785209</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub8ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>81.04801944653499</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4805589314860602</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.81048019446535</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8065470650496707</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub9ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>65.79200512115156</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9558115189274152</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6579200512115156</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6384759474391325</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub9ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.61618180088063</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.028089911490679</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6061618180088063</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5828691337228994</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub9ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61.91861521293437</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.001358332236608</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6191861521293436</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6043745255221828</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub10ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>44.34389570844039</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.23025896747907</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4434389570844038</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.413397773279616</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub10ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>48.14488014602203</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.220524263381958</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.4814488014602203</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.449966115145219</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub10ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>57.39184595022448</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.9978955969214439</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5739184595022448</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.5496275033881093</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>57.79634771927093</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.397445627488196</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5779634771927092</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5248185068036937</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>65.1235737333368</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9224514054134488</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.6512357373333679</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.6400937818009206</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>70.19827161134612</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7716355350178976</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.7019827161134613</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.6906188381133694</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>54.84528412875544</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.243669092655182</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5484528412875543</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.5112232600558145</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>55.39874912412737</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.373710193360845</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5539874912412737</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.5037397058668066</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>75.34779712627272</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6560310463110606</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.7534779712627271</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.748924027005647</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>56.59313661882889</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9803455571333567</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5659313661882888</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.5455731578919465</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>58.1527521864376</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.972436840335528</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.581527521864376</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.5500897896819122</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>53.766987603699</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.020971917112668</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.53766987603699</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5104603123718768</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>70.54265175304285</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.8234768037994703</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7054265175304285</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.6976216257181795</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>51.34585939324735</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.139685769130786</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5134585939324735</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.4791875108267126</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>60.11211169646796</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9962966578702132</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.6011211169646796</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.5779903921606813</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>89.09973269664962</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3066620509140193</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.8909973269664964</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8899247212184797</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>82.09993166030848</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.6931184008426499</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.8209993166030849</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8085717729343763</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>95.46380158997916</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1225468764372636</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9546380158997915</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9543919957285036</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>63.787570250031</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9169140578842617</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.63787570250031</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6172277151833317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>